--- a/Excel/DynamicEntity/Character/CharacterConfig.xlsx
+++ b/Excel/DynamicEntity/Character/CharacterConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\DynamicEntity\Interactable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\DynamicEntity\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000761ED-65D9-4703-B473-38398534DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A901446-DDDF-4222-81C3-1F4B8A82458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>可交互物体配置表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -57,6 +53,10 @@
   </si>
   <si>
     <t>InteractBuffId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -479,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
